--- a/YSteam開発資料まとめ/スケジュール管理_YS_試験編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_試験編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4834B-2C51-4B0B-9617-B6D447AAF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B581F-94E3-44E7-9AD2-2EF1138DDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="9" t="s">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="9" t="s">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="9" t="s">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="9" t="s">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="23">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="9" t="s">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="9" t="s">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="9" t="s">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="9" t="s">

--- a/YSteam開発資料まとめ/スケジュール管理_YS_試験編.xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS_試験編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B581F-94E3-44E7-9AD2-2EF1138DDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77817307-2995-47C3-B865-66AFCDFE4123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{463BA607-5B8D-427B-915F-C261C307A3F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -241,6 +241,13 @@
       <t>ジ</t>
     </rPh>
     <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>11/2512時までには完了</t>
+    <rPh sb="10" eb="12">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1332,7 +1339,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -1397,9 +1404,11 @@
       <c r="F2" s="22">
         <v>44524</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22">
+        <v>44524</v>
+      </c>
       <c r="H2" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="9" t="s">
@@ -1425,9 +1434,11 @@
       <c r="F3" s="22">
         <v>44524</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="22">
+        <v>44524</v>
+      </c>
       <c r="H3" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="9" t="s">
@@ -1509,9 +1520,11 @@
       <c r="F6" s="17">
         <v>44524</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17">
+        <v>44524</v>
+      </c>
       <c r="H6" s="23">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="9" t="s">
@@ -1537,9 +1550,11 @@
       <c r="F7" s="17">
         <v>44524</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="17">
+        <v>44524</v>
+      </c>
       <c r="H7" s="23">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="9" t="s">
@@ -1565,9 +1580,11 @@
       <c r="F8" s="17">
         <v>44524</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17">
+        <v>44524</v>
+      </c>
       <c r="H8" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="9" t="s">
@@ -1593,9 +1610,11 @@
       <c r="F9" s="17">
         <v>44524</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="17">
+        <v>44524</v>
+      </c>
       <c r="H9" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="9" t="s">
@@ -1625,7 +1644,7 @@
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
